--- a/Evaluation/Prâmetros para cálculo do BDM.xlsx
+++ b/Evaluation/Prâmetros para cálculo do BDM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://petrobrasbr-my.sharepoint.com/personal/fabio_cordeiro_petrobras_com_br/Documents/Documents/Repositorios/Petro_KGraph/Evaluation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="8_{5646490A-DC56-44E8-BE95-DD120A95BE31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08613CCD-C797-4976-BECA-472F08E6DE22}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="8_{5646490A-DC56-44E8-BE95-DD120A95BE31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4413F7FA-8D35-4E7C-B1A7-0A7E90AF8CF2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C2FC5C2F-867A-4756-AA99-569472A553F6}"/>
   </bookViews>
@@ -107,7 +107,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -146,11 +146,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -167,6 +168,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -469,7 +474,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:M20"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -498,11 +503,11 @@
         <v>64</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <f>B2*C2</f>
-        <v>384</v>
+        <v>448</v>
       </c>
       <c r="E2" s="3">
         <f>B2/$B$19</f>
@@ -518,11 +523,11 @@
         <v>479</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D18" si="0">B3*C3</f>
-        <v>2874</v>
+        <v>3353</v>
       </c>
       <c r="E3" s="3">
         <f t="shared" ref="E3:E19" si="1">B3/$B$19</f>
@@ -538,16 +543,17 @@
         <v>282</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>1128</v>
+        <v>1410</v>
       </c>
       <c r="E4" s="3">
         <f t="shared" si="1"/>
         <v>0.13576866367766979</v>
       </c>
+      <c r="G4" s="4"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -558,14 +564,14 @@
         <v>30923</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>185538</v>
+        <v>216461</v>
       </c>
       <c r="E5" s="3">
-        <f t="shared" si="1"/>
+        <f>B5/$B$19</f>
         <v>14.887852435831855</v>
       </c>
       <c r="I5" s="1"/>
@@ -578,11 +584,11 @@
         <v>57</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>228</v>
+        <v>285</v>
       </c>
       <c r="E6" s="3">
         <f t="shared" si="1"/>
@@ -598,11 +604,11 @@
         <v>512</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>3584</v>
+        <v>4096</v>
       </c>
       <c r="E7" s="3">
         <f t="shared" si="1"/>
@@ -618,11 +624,11 @@
         <v>347</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>1735</v>
+        <v>2082</v>
       </c>
       <c r="E8" s="3">
         <f t="shared" si="1"/>
@@ -657,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
@@ -677,11 +683,11 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="E12" s="3">
         <f t="shared" si="1"/>
@@ -697,11 +703,11 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E13" s="3">
         <f t="shared" si="1"/>
@@ -717,11 +723,11 @@
         <v>15</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="E14" s="3">
         <f t="shared" si="1"/>
@@ -737,11 +743,11 @@
         <v>188</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>1128</v>
+        <v>1316</v>
       </c>
       <c r="E15" s="3">
         <f t="shared" si="1"/>
@@ -757,11 +763,11 @@
         <v>347</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>1735</v>
+        <v>2082</v>
       </c>
       <c r="E16" s="3">
         <f t="shared" si="1"/>
@@ -777,11 +783,11 @@
         <v>4</v>
       </c>
       <c r="C17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E17" s="3">
         <f t="shared" si="1"/>
@@ -797,11 +803,11 @@
         <v>3</v>
       </c>
       <c r="C18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E18" s="3">
         <f t="shared" si="1"/>
@@ -819,7 +825,7 @@
       </c>
       <c r="D19">
         <f>SUM(D2:D18)</f>
-        <v>198545</v>
+        <v>231778</v>
       </c>
       <c r="E19" s="3">
         <f t="shared" si="1"/>
@@ -832,7 +838,7 @@
       </c>
       <c r="D20">
         <f>D19/SUM(B2:B18)</f>
-        <v>5.9743327415520717</v>
+        <v>6.9743327415520717</v>
       </c>
       <c r="E20" s="2"/>
     </row>

--- a/Evaluation/Prâmetros para cálculo do BDM.xlsx
+++ b/Evaluation/Prâmetros para cálculo do BDM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://petrobrasbr-my.sharepoint.com/personal/fabio_cordeiro_petrobras_com_br/Documents/Documents/Repositorios/Petro_KGraph/Evaluation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="8_{5646490A-DC56-44E8-BE95-DD120A95BE31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4413F7FA-8D35-4E7C-B1A7-0A7E90AF8CF2}"/>
+  <xr:revisionPtr revIDLastSave="123" documentId="8_{5646490A-DC56-44E8-BE95-DD120A95BE31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63780788-89FE-4DE6-9B08-2177A0340192}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C2FC5C2F-867A-4756-AA99-569472A553F6}"/>
   </bookViews>
@@ -44,61 +44,61 @@
     <t>Campo</t>
   </si>
   <si>
-    <t>Estrutura Física</t>
-  </si>
-  <si>
     <t>Poço</t>
   </si>
   <si>
     <t>Textura</t>
   </si>
   <si>
-    <t>Unidade Lito</t>
-  </si>
-  <si>
-    <t>Intervalo de tempo Geológico</t>
-  </si>
-  <si>
-    <t>Total classes</t>
-  </si>
-  <si>
-    <t>Fluido antropogênico</t>
-  </si>
-  <si>
-    <t>Fluido da terra O&amp;G</t>
-  </si>
-  <si>
-    <t>Fluido da terra</t>
-  </si>
-  <si>
-    <t>Material não consolidado</t>
-  </si>
-  <si>
     <t>Rocha</t>
   </si>
   <si>
-    <t>Idade Geologica</t>
-  </si>
-  <si>
-    <t>Eventos do Sistema Petrolífero</t>
-  </si>
-  <si>
-    <t>Elementos do Sistema Petrolífero</t>
-  </si>
-  <si>
-    <t>Chain length</t>
-  </si>
-  <si>
-    <t>n0 - Average chain</t>
-  </si>
-  <si>
-    <t>Average Branch Factor</t>
-  </si>
-  <si>
     <t>BR</t>
   </si>
   <si>
-    <t>Branch Factor (Descendents)</t>
+    <t>BranchFactor(Descendents)</t>
+  </si>
+  <si>
+    <t>log(BranchFactor)(Descendents)</t>
+  </si>
+  <si>
+    <t>Chainlength</t>
+  </si>
+  <si>
+    <t>EstruturaFísica</t>
+  </si>
+  <si>
+    <t>UnidadeLito</t>
+  </si>
+  <si>
+    <t>IntervalodetempoGeológico</t>
+  </si>
+  <si>
+    <t>Fluidoantropogênico</t>
+  </si>
+  <si>
+    <t>FluidodaterraO&amp;G</t>
+  </si>
+  <si>
+    <t>Fluidodaterra</t>
+  </si>
+  <si>
+    <t>Materialnãoconsolidado</t>
+  </si>
+  <si>
+    <t>IdadeGeologica</t>
+  </si>
+  <si>
+    <t>EventosdoSistemaPetrolífero</t>
+  </si>
+  <si>
+    <t>ElementosdoSistemaPetrolífero</t>
+  </si>
+  <si>
+    <t>AverageBranchFactor</t>
+  </si>
+  <si>
+    <t>n0-Averagechain</t>
   </si>
 </sst>
 </file>
@@ -471,376 +471,423 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E272136E-31F6-4D72-AA27-E48237F51B35}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="H2" sqref="H2:M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.88671875" customWidth="1"/>
     <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
         <v>64</v>
       </c>
-      <c r="C2">
-        <v>7</v>
-      </c>
-      <c r="D2">
-        <f>B2*C2</f>
+      <c r="C2" s="2">
+        <f>LOG(B2+2)</f>
+        <v>1.8195439355418688</v>
+      </c>
+      <c r="D2" s="4">
+        <f>C2/$C$17</f>
+        <v>0.97855802687272364</v>
+      </c>
+      <c r="E2">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <f>B2*E2</f>
         <v>448</v>
       </c>
-      <c r="E2" s="3">
-        <f>B2/$B$19</f>
-        <v>3.0812746366563355E-2</v>
-      </c>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
         <v>479</v>
       </c>
-      <c r="C3">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D18" si="0">B3*C3</f>
+      <c r="C3" s="2">
+        <f t="shared" ref="C3:C16" si="0">LOG(B3+2)</f>
+        <v>2.6821450763738319</v>
+      </c>
+      <c r="D3" s="4">
+        <f>C3/$C$17</f>
+        <v>1.4424683803752938</v>
+      </c>
+      <c r="E3">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F16" si="1">B3*E3</f>
         <v>3353</v>
       </c>
-      <c r="E3" s="3">
-        <f t="shared" ref="E3:E19" si="1">B3/$B$19</f>
-        <v>0.2306141485872476</v>
-      </c>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>282</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
+        <f t="shared" si="0"/>
+        <v>2.4533183400470375</v>
+      </c>
+      <c r="D4" s="4">
+        <f>C4/$C$17</f>
+        <v>1.3194044437361445</v>
+      </c>
+      <c r="E4">
         <v>5</v>
       </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
+      <c r="F4">
+        <f t="shared" si="1"/>
         <v>1410</v>
       </c>
-      <c r="E4" s="3">
-        <f t="shared" si="1"/>
-        <v>0.13576866367766979</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I4" s="4"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>30923</v>
       </c>
-      <c r="C5">
-        <v>7</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
+      <c r="C5" s="2">
+        <f t="shared" si="0"/>
+        <v>4.4903097083011581</v>
+      </c>
+      <c r="D5" s="4">
+        <f>C5/$C$17</f>
+        <v>2.4149065721208065</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
         <v>216461</v>
       </c>
-      <c r="E5" s="3">
-        <f>B5/$B$19</f>
-        <v>14.887852435831855</v>
-      </c>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>57</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
+        <f t="shared" si="0"/>
+        <v>1.7708520116421442</v>
+      </c>
+      <c r="D6" s="4">
+        <f>C6/$C$17</f>
+        <v>0.95237131489219562</v>
+      </c>
+      <c r="E6">
         <v>5</v>
       </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
+      <c r="F6">
+        <f t="shared" si="1"/>
         <v>285</v>
       </c>
-      <c r="E6" s="3">
-        <f t="shared" si="1"/>
-        <v>2.7442602232720489E-2</v>
-      </c>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>512</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
+        <v>2.7109631189952759</v>
+      </c>
+      <c r="D7" s="4">
+        <f>C7/$C$17</f>
+        <v>1.4579668392886127</v>
+      </c>
+      <c r="E7">
         <v>8</v>
       </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
+      <c r="F7">
+        <f t="shared" si="1"/>
         <v>4096</v>
       </c>
-      <c r="E7" s="3">
-        <f t="shared" si="1"/>
-        <v>0.24650197093250684</v>
-      </c>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>347</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
+        <f t="shared" si="0"/>
+        <v>2.5428254269591797</v>
+      </c>
+      <c r="D8" s="4">
+        <f>C8/$C$17</f>
+        <v>1.36754171409768</v>
+      </c>
+      <c r="E8">
         <v>6</v>
       </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
+      <c r="F8">
+        <f t="shared" si="1"/>
         <v>2082</v>
       </c>
-      <c r="E8" s="3">
-        <f t="shared" si="1"/>
-        <v>0.1670628592062107</v>
-      </c>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E9" s="3">
-        <f t="shared" si="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="D9" s="4">
+        <f>C9/$C$17</f>
+        <v>0.16189513912381789</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1139433523068367</v>
+      </c>
+      <c r="D10" s="4">
+        <f>C10/$C$17</f>
+        <v>0.59908320298775353</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>7</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.47712125471966244</v>
+      </c>
+      <c r="D11" s="4">
+        <f>C11/$C$17</f>
+        <v>0.2565977245602859</v>
+      </c>
+      <c r="E11">
+        <v>7</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>11</v>
-      </c>
-      <c r="C12">
-        <v>8</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>88</v>
-      </c>
-      <c r="E12" s="3">
-        <f t="shared" si="1"/>
-        <v>5.2959407817530771E-3</v>
-      </c>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" si="0"/>
+        <v>1.2304489213782739</v>
+      </c>
+      <c r="D12" s="4">
+        <f>C12/$C$17</f>
+        <v>0.66174036534765968</v>
+      </c>
+      <c r="E12">
+        <v>7</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B13">
+        <v>188</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>2.2787536009528289</v>
+      </c>
+      <c r="D13" s="4">
+        <f>C13/$C$17</f>
+        <v>1.2255228268579519</v>
+      </c>
+      <c r="E13">
+        <v>7</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>1316</v>
+      </c>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>347</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>2.5428254269591797</v>
+      </c>
+      <c r="D14" s="4">
+        <f>C14/$C$17</f>
+        <v>1.36754171409768</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>2082</v>
+      </c>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>0.77815125038364363</v>
+      </c>
+      <c r="D15" s="4">
+        <f>C15/$C$17</f>
+        <v>0.41849286368410377</v>
+      </c>
+      <c r="E15">
+        <v>6</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.69897000433601886</v>
+      </c>
+      <c r="D16" s="4">
+        <f>C16/$C$17</f>
+        <v>0.375908871957291</v>
+      </c>
+      <c r="E16">
+        <v>7</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <f>SUM(B2:B16)/COUNTA(A2:A16)</f>
+        <v>2215.5333333333333</v>
+      </c>
+      <c r="C17">
+        <f>SUM(C2:C16)/COUNTA(C2:C16)</f>
+        <v>1.8594134283040613</v>
+      </c>
+      <c r="D17" s="3">
+        <f>B17/$B$17</f>
         <v>1</v>
       </c>
-      <c r="C13">
-        <v>7</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="E13" s="3">
-        <f t="shared" si="1"/>
-        <v>4.8144916197755241E-4</v>
-      </c>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14">
-        <v>15</v>
-      </c>
-      <c r="C14">
-        <v>7</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>105</v>
-      </c>
-      <c r="E14" s="3">
-        <f t="shared" si="1"/>
-        <v>7.2217374296632865E-3</v>
-      </c>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15">
-        <v>188</v>
-      </c>
-      <c r="C15">
-        <v>7</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
-        <v>1316</v>
-      </c>
-      <c r="E15" s="3">
-        <f t="shared" si="1"/>
-        <v>9.0512442451779862E-2</v>
-      </c>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16">
-        <v>347</v>
-      </c>
-      <c r="C16">
-        <v>6</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>2082</v>
-      </c>
-      <c r="E16" s="3">
-        <f t="shared" si="1"/>
-        <v>0.1670628592062107</v>
-      </c>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
-      <c r="C17">
-        <v>6</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="E17" s="3">
-        <f t="shared" si="1"/>
-        <v>1.9257966479102097E-3</v>
-      </c>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18">
-        <v>3</v>
-      </c>
-      <c r="C18">
-        <v>7</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="E18" s="3">
-        <f t="shared" si="1"/>
-        <v>1.4443474859326573E-3</v>
-      </c>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <f>SUM(B2:B18)/COUNTA(A2:A18)</f>
-        <v>2077.0625</v>
-      </c>
-      <c r="D19">
-        <f>SUM(D2:D18)</f>
+      <c r="F17">
+        <f>SUM(F2:F16)</f>
         <v>231778</v>
       </c>
-      <c r="E19" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20">
-        <f>D19/SUM(B2:B18)</f>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D18" s="2"/>
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18">
+        <f>F17/SUM(B2:B16)</f>
         <v>6.9743327415520717</v>
       </c>
-      <c r="E20" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
